--- a/Thermal Sensor BOM 2025.xlsx
+++ b/Thermal Sensor BOM 2025.xlsx
@@ -172,11 +172,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$$]#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$$]#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -223,13 +223,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -238,6 +231,35 @@
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,15 +272,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,33 +310,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,9 +333,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,31 +348,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,9 +363,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,13 +397,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,7 +439,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,13 +475,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,127 +577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,6 +643,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -654,15 +663,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,6 +682,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -693,15 +702,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,6 +723,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -731,164 +740,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -898,7 +898,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -906,17 +906,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -925,9 +926,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1195,13 +1196,13 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6306306306306" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.6306306306306" customWidth="1"/>
-    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="2" max="2" width="49.3873873873874" customWidth="1"/>
     <col min="3" max="3" width="11.2522522522523" customWidth="1"/>
     <col min="4" max="4" width="9.25225225225225" customWidth="1"/>
     <col min="5" max="5" width="12.6306306306306" customWidth="1"/>
@@ -1234,10 +1235,10 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="26" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="10"/>
@@ -1265,7 +1266,7 @@
       <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="27" t="s">
         <v>12</v>
       </c>
       <c r="K2" t="s">
@@ -1293,7 +1294,7 @@
       <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="27" t="s">
         <v>16</v>
       </c>
       <c r="K3" t="s">
@@ -1345,7 +1346,7 @@
       <c r="G6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K6" t="s">
@@ -1396,10 +1397,10 @@
         <v>4.95</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="27" t="s">
         <v>29</v>
       </c>
       <c r="K8" t="s">
@@ -1411,11 +1412,11 @@
     <row r="9" ht="15.75" customHeight="1" spans="1:26">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="20">
         <f>SUM(E6:E8)</f>
         <v>23.4</v>
       </c>
@@ -1442,7 +1443,7 @@
       <c r="Z9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="15"/>
@@ -1454,7 +1455,7 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1474,7 +1475,7 @@
       <c r="G11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="28" t="s">
         <v>34</v>
       </c>
       <c r="K11" t="s">
@@ -1512,7 +1513,7 @@
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="23">
         <v>45</v>
       </c>
       <c r="D14" s="6">
@@ -1526,7 +1527,7 @@
       <c r="G14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="28" t="s">
         <v>39</v>
       </c>
       <c r="K14" t="s">
@@ -1556,10 +1557,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="3:9">
       <c r="C17" s="11"/>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="25">
         <f>SUM(E4,E12,E15,E9)</f>
         <v>106.33</v>
       </c>
